--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL2.30days.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL2.30days.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -459,22 +459,22 @@
         <v>1.07846944156297</v>
       </c>
       <c r="E2" t="n">
-        <v>0.405328598683508</v>
+        <v>0.405328598683507</v>
       </c>
       <c r="F2" t="n">
-        <v>2.94017599429188</v>
+        <v>2.94017599429189</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32846665762653</v>
+        <v>1.32846665762654</v>
       </c>
       <c r="H2" t="n">
         <v>6.50722758285477</v>
       </c>
       <c r="I2" t="n">
-        <v>2.66072871508648</v>
+        <v>2.66072871508649</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00779717513921166</v>
+        <v>0.00779717513921154</v>
       </c>
       <c r="K2" t="n">
         <v>1029</v>
@@ -532,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.840815927943705</v>
+        <v>0.840815927943706</v>
       </c>
       <c r="E4" t="n">
         <v>0.427744719046097</v>
@@ -541,16 +541,16 @@
         <v>2.31825773658231</v>
       </c>
       <c r="G4" t="n">
-        <v>1.00243924875163</v>
+        <v>1.00243924875164</v>
       </c>
       <c r="H4" t="n">
-        <v>5.36124153151076</v>
+        <v>5.36124153151077</v>
       </c>
       <c r="I4" t="n">
         <v>1.96569563691818</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0493337791244441</v>
+        <v>0.0493337791244438</v>
       </c>
       <c r="K4" t="n">
         <v>1029</v>
@@ -585,7 +585,7 @@
         <v>4.05835005519039</v>
       </c>
       <c r="I5" t="n">
-        <v>0.335138719090465</v>
+        <v>0.335138719090466</v>
       </c>
       <c r="J5" t="n">
         <v>0.737520446429208</v>
@@ -614,19 +614,19 @@
         <v>1.09853149524734</v>
       </c>
       <c r="F6" t="n">
-        <v>7.83908191961654</v>
+        <v>7.83908191961647</v>
       </c>
       <c r="G6" t="n">
-        <v>0.910282757444322</v>
+        <v>0.910282757444315</v>
       </c>
       <c r="H6" t="n">
-        <v>67.5078208830268</v>
+        <v>67.507820883026</v>
       </c>
       <c r="I6" t="n">
         <v>1.87443121505768</v>
       </c>
       <c r="J6" t="n">
-        <v>0.060871014462273</v>
+        <v>0.0608710144622736</v>
       </c>
       <c r="K6" t="n">
         <v>1029</v>
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.777360451280067</v>
+        <v>-0.777360451280068</v>
       </c>
       <c r="E7" t="n">
         <v>1.22598853824089</v>
@@ -658,13 +658,13 @@
         <v>0.0415732650146216</v>
       </c>
       <c r="H7" t="n">
-        <v>5.08135055567081</v>
+        <v>5.08135055567079</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.634068286148467</v>
+        <v>-0.634068286148468</v>
       </c>
       <c r="J7" t="n">
-        <v>0.526036258577318</v>
+        <v>0.526036258577317</v>
       </c>
       <c r="K7" t="n">
         <v>493</v>
@@ -684,13 +684,13 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>65.4956835298948</v>
+        <v>65.4956835568229</v>
       </c>
       <c r="E8" t="n">
-        <v>3024.67960457454</v>
+        <v>3024.67962969327</v>
       </c>
       <c r="F8" t="n">
-        <v>27823639999936900085871280128</v>
+        <v>27823640749173700115224854528</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>#NUM!</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0216537591058699</v>
+        <v>0.021653758934947</v>
       </c>
       <c r="J8" t="n">
-        <v>0.982724150001935</v>
+        <v>0.98272415013828</v>
       </c>
       <c r="K8" t="n">
         <v>1029</v>
@@ -722,13 +722,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>22.7617217994577</v>
+        <v>22.7617208196112</v>
       </c>
       <c r="E9" t="n">
-        <v>51224.6479438763</v>
+        <v>51224.636929086</v>
       </c>
       <c r="F9" t="n">
-        <v>7678743772.65375</v>
+        <v>7678736248.66679</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>#NUM!</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000444350966050491</v>
+        <v>0.000444351042470479</v>
       </c>
       <c r="J9" t="n">
-        <v>0.999645459236278</v>
+        <v>0.999645459175303</v>
       </c>
       <c r="K9" t="n">
         <v>493</v>
